--- a/xlsx/a69_f31_aUPPachuca.xlsx
+++ b/xlsx/a69_f31_aUPPachuca.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EVALUACION\EVALUACIÓN\2023\UPP-17-2023-12C\12C.1_1 (Transparencia Institucional)\SIPOT\3ER TRIMESTRE\UPP 3ER TRI 2023 SIPOT vo.bo.1\UPP 3ER TRI 2023 SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\entrega transparencia\5ta (300124 presupuestales)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC0132D-E9DC-4573-8AA0-7895FBC75D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="140">
   <si>
     <t>46622</t>
   </si>
@@ -196,14 +197,272 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>En términos de la Ley General de Contabilidad Gubernamental en su Art. 51 que a la letra dice " La información financiera que generen los entes públicos en cumplimiento de esta Ley será organizada, sistematizada y difundida por cada uno de éstos, al menos, trimestralmente en sus respectivas páginas electrónicas de internet, a más tardar 30 días después del cierre del período que corresponda..." y Art.58 que a la letra dice "La información financiera que deba incluirse en Internet en términos de este Título deberá publicarse por lo menos trimestralmente, ... dentro de los treinta días naturales siguientes al cierre del período que corresponda"</t>
+    <t>Sueldos</t>
+  </si>
+  <si>
+    <t>Prima Vacacional y dominical</t>
+  </si>
+  <si>
+    <t>Gratificación Anual</t>
+  </si>
+  <si>
+    <t>Aportaciones al ISSSTE</t>
+  </si>
+  <si>
+    <t>Adecuación compensada</t>
+  </si>
+  <si>
+    <t>Aportaciones al Seguro de Cesantía en Edad Avanzada y Vejez</t>
+  </si>
+  <si>
+    <t>Aportaciones a FOVISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al SAR</t>
+  </si>
+  <si>
+    <t>Material de oficina</t>
+  </si>
+  <si>
+    <t>Gastos de Oficina</t>
+  </si>
+  <si>
+    <t>Materiales y útiles de impresiín y reproducción</t>
+  </si>
+  <si>
+    <t>Materiales y útiles consumibles para el procesamiento en equipos y bienes informáticos</t>
+  </si>
+  <si>
+    <t>Material de Limpieza</t>
+  </si>
+  <si>
+    <t>Material didáctico</t>
+  </si>
+  <si>
+    <t>Alimentación de Animales</t>
+  </si>
+  <si>
+    <t>Productos agrícolas</t>
+  </si>
+  <si>
+    <t>Productos minerales no metálicos</t>
+  </si>
+  <si>
+    <t>Cemento y productos de concreto</t>
+  </si>
+  <si>
+    <t>Cal, yeso y productos de yeso</t>
+  </si>
+  <si>
+    <t>Madera y productos de madera</t>
+  </si>
+  <si>
+    <t>Vidrios y productos de vidrio</t>
+  </si>
+  <si>
+    <t>Material Eléctrico</t>
+  </si>
+  <si>
+    <t>Material electrónico</t>
+  </si>
+  <si>
+    <t>Artículos metálicos para la construcción</t>
+  </si>
+  <si>
+    <t>Otros materiales y artículos de construcción y reparación</t>
+  </si>
+  <si>
+    <t>Sustancias Químicas</t>
+  </si>
+  <si>
+    <t>Fertilizantes, Pesticidas y Otros Agroquímicos</t>
+  </si>
+  <si>
+    <t>Medicina y productos farmaceúticos</t>
+  </si>
+  <si>
+    <t>Materiales, accesorios y suministros médicos</t>
+  </si>
+  <si>
+    <t>Materiales, accesorios y suministros de laboratorio</t>
+  </si>
+  <si>
+    <t>Fibras sintéticas, hules, plásticos y derivados</t>
+  </si>
+  <si>
+    <t>Otros productos químicos</t>
+  </si>
+  <si>
+    <t>Combustibles y Lubricantes para vehículos y equipos terrestres</t>
+  </si>
+  <si>
+    <t>Vestuario y uniformes</t>
+  </si>
+  <si>
+    <t>Prendas de seguridad y protección personal</t>
+  </si>
+  <si>
+    <t>Artículos deportivos</t>
+  </si>
+  <si>
+    <t>Herramientas Menores</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de edificios</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de mobiliario y equipo de administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo de cómputo y tecnologías de la información</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Refacciones</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de maquinaria y otros equipos</t>
+  </si>
+  <si>
+    <t>Servicio de Energía Eléctrica</t>
+  </si>
+  <si>
+    <t>Servicio de Agua</t>
+  </si>
+  <si>
+    <t>Servicio Telefónico Tradicional</t>
+  </si>
+  <si>
+    <t>Servicios de acceso de internet, redes yprocesamiento de información</t>
+  </si>
+  <si>
+    <t>Servicio Postal</t>
+  </si>
+  <si>
+    <t>Arrendamiento de Equipo de Fotocopiado</t>
+  </si>
+  <si>
+    <t>Arrendamiento de maquinaria, otros equipos y herramientas</t>
+  </si>
+  <si>
+    <t>Arrendamiento de activos intangibles</t>
+  </si>
+  <si>
+    <t>Servicios de contabilidad, auditoría y servicios relacionados</t>
+  </si>
+  <si>
+    <t>Servicios de consultoría y asesoría</t>
+  </si>
+  <si>
+    <t>Servicios de diseño, arquitectura, ingeniería y actividades relacionadas</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>Servicios de apoyo administrativo, fotocopiado e impresión</t>
+  </si>
+  <si>
+    <t>Servicios de Vigilancia</t>
+  </si>
+  <si>
+    <t>Servicios financieros y bancarios</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Conservación y mantenimiento menor de inmuebles</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Mobiliario y Equipo de Administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de bienes informáticos</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Vehículos</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Maquinaria y Equipo</t>
+  </si>
+  <si>
+    <t>Servicios de limpieza y manejo de desechos</t>
+  </si>
+  <si>
+    <t>Servicios de jardinería y fumigación</t>
+  </si>
+  <si>
+    <t>Impresiones y Publicaciones Oficiales</t>
+  </si>
+  <si>
+    <t>Difusión por radio, televisión y otros medios de mensajes comerciales para promover la venta de bienes o servicios</t>
+  </si>
+  <si>
+    <t>Pasajes aéreos</t>
+  </si>
+  <si>
+    <t>Pasajes terrestres</t>
+  </si>
+  <si>
+    <t>Viáticos en el país</t>
+  </si>
+  <si>
+    <t>Gastos de ceremonial</t>
+  </si>
+  <si>
+    <t>Gastos de orden social y cultural</t>
+  </si>
+  <si>
+    <t>Pago de ISR</t>
+  </si>
+  <si>
+    <t>Pago de derechos</t>
+  </si>
+  <si>
+    <t>Impuesto sobre nóminas y otros que se deriven de una relación laboral</t>
+  </si>
+  <si>
+    <t>Transferencias internas otorgadas a entidades paraestatales no empresariales y no financieras</t>
+  </si>
+  <si>
+    <t>Becas y otras ayudas para programas de capacitación</t>
+  </si>
+  <si>
+    <t>Bienes informáticos</t>
+  </si>
+  <si>
+    <t>Equipo médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Herramientas y máquinas-herramientas</t>
+  </si>
+  <si>
+    <t>Otros equipos</t>
+  </si>
+  <si>
+    <t>Congreso, convenciones</t>
+  </si>
+  <si>
+    <t>Provisión para erogaciones especiales</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_diciembre_2023/04.estadopresupuestoegresos-cap-gto.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -224,6 +483,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -243,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,32 +533,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -603,11 +891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P6" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +906,7 @@
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.7109375" customWidth="1"/>
     <col min="8" max="8" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.7109375" bestFit="1" customWidth="1"/>
@@ -626,11 +914,11 @@
     <col min="12" max="12" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="133.5703125" customWidth="1"/>
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="48.7109375" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -638,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -655,7 +943,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -672,125 +960,125 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -813,99 +1101,4892 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="210" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="4">
-        <v>45108</v>
-      </c>
-      <c r="C8" s="4">
-        <v>45199</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>45209</v>
-      </c>
-      <c r="R8" s="4">
-        <v>45209</v>
-      </c>
-      <c r="S8" s="5" t="s">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="2">
+        <v>113001</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H8" s="2">
+        <v>81228196</v>
+      </c>
+      <c r="I8" s="2">
+        <v>82035807.189999998</v>
+      </c>
+      <c r="J8" s="2">
+        <v>82035807.189999998</v>
+      </c>
+      <c r="K8" s="2">
+        <v>82035807.189999998</v>
+      </c>
+      <c r="L8" s="2">
+        <v>82035807.189999998</v>
+      </c>
+      <c r="M8" s="2">
+        <v>82035807.189999998</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R8" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F9" s="2">
+        <v>132001</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6543382</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5985315.7899999991</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5985315.7899999991</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5985315.7899999991</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5985315.7899999991</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5985315.7899999991</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R9" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="2">
+        <v>132002</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="2">
+        <v>13538031</v>
+      </c>
+      <c r="I10" s="2">
+        <v>13605222.129999999</v>
+      </c>
+      <c r="J10" s="2">
+        <v>13605222.129999999</v>
+      </c>
+      <c r="K10" s="2">
+        <v>13605222.129999999</v>
+      </c>
+      <c r="L10" s="2">
+        <v>13605222.129999999</v>
+      </c>
+      <c r="M10" s="2">
+        <v>13605222.129999999</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R10" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F11" s="2">
+        <v>141001</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7969316</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8406005.1799999997</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8406005.1799999997</v>
+      </c>
+      <c r="K11" s="2">
+        <v>8406005.1799999997</v>
+      </c>
+      <c r="L11" s="2">
+        <v>8406005.1799999997</v>
+      </c>
+      <c r="M11" s="2">
+        <v>8406005.1799999997</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R11" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="2">
+        <v>141004</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2458728</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2442590.3999999994</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2442590.3999999994</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2442590.3999999994</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2442590.3999999994</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2442590.3999999994</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R12" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F13" s="2">
+        <v>142001</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3872012</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3846600.09</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3846600.09</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3846600.09</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3846600.09</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3846600.09</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R13" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="2">
+        <v>143001</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2246904</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1994660.43</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1994660.43</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1994660.43</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1994660.43</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1994660.43</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R14" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F15" s="2">
+        <v>211001</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2">
+        <v>342310</v>
+      </c>
+      <c r="I15" s="2">
+        <v>414128.55000000005</v>
+      </c>
+      <c r="J15" s="2">
+        <v>414128.55000000005</v>
+      </c>
+      <c r="K15" s="2">
+        <v>414128.55000000005</v>
+      </c>
+      <c r="L15" s="2">
+        <v>414128.55000000005</v>
+      </c>
+      <c r="M15" s="2">
+        <v>303482.52</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R15" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F16" s="2">
+        <v>211002</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="2">
+        <v>27000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>24939.760000000002</v>
+      </c>
+      <c r="J16" s="2">
+        <v>24939.760000000002</v>
+      </c>
+      <c r="K16" s="2">
+        <v>24939.760000000002</v>
+      </c>
+      <c r="L16" s="2">
+        <v>24939.760000000002</v>
+      </c>
+      <c r="M16" s="2">
+        <v>24939.760000000002</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R16" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="2">
+        <v>212001</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="2">
+        <v>68600</v>
+      </c>
+      <c r="I17" s="2">
+        <v>75872.28</v>
+      </c>
+      <c r="J17" s="2">
+        <v>75872.28</v>
+      </c>
+      <c r="K17" s="2">
+        <v>75872.28</v>
+      </c>
+      <c r="L17" s="2">
+        <v>75872.28</v>
+      </c>
+      <c r="M17" s="2">
+        <v>75872.28</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R17" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F18" s="2">
+        <v>214001</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="2">
+        <v>274357</v>
+      </c>
+      <c r="I18" s="2">
+        <f>338063.68</f>
+        <v>338063.68</v>
+      </c>
+      <c r="J18" s="2">
+        <f>333687.68</f>
+        <v>333687.67999999999</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" ref="K18:L18" si="0">333687.68</f>
+        <v>333687.67999999999</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="0"/>
+        <v>333687.67999999999</v>
+      </c>
+      <c r="M18" s="2">
+        <v>258071.46</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R18" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F19" s="2">
+        <v>216001</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="2">
+        <v>434070</v>
+      </c>
+      <c r="I19" s="2">
+        <v>461743.53000000009</v>
+      </c>
+      <c r="J19" s="2">
+        <v>461743.53000000009</v>
+      </c>
+      <c r="K19" s="2">
+        <v>461743.53000000009</v>
+      </c>
+      <c r="L19" s="2">
+        <v>461743.53000000009</v>
+      </c>
+      <c r="M19" s="2">
+        <v>461743.53000000009</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R19" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="2">
+        <v>217001</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="2">
+        <v>202200</v>
+      </c>
+      <c r="I20" s="2">
+        <v>494229.57999999996</v>
+      </c>
+      <c r="J20" s="2">
+        <v>494229.57999999996</v>
+      </c>
+      <c r="K20" s="2">
+        <v>494229.57999999996</v>
+      </c>
+      <c r="L20" s="2">
+        <v>494229.57999999996</v>
+      </c>
+      <c r="M20" s="2">
+        <v>355957.57999999996</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R20" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2200</v>
+      </c>
+      <c r="F21" s="2">
+        <v>222001</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="2">
+        <v>180000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>180000</v>
+      </c>
+      <c r="J21" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K21" s="2">
+        <v>180000</v>
+      </c>
+      <c r="L21" s="2">
+        <v>180000</v>
+      </c>
+      <c r="M21" s="2">
+        <v>180000</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R21" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2300</v>
+      </c>
+      <c r="F22" s="2">
+        <v>231001</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="2">
+        <v>12000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>12000</v>
+      </c>
+      <c r="J22" s="2">
+        <v>12000</v>
+      </c>
+      <c r="K22" s="2">
+        <v>12000</v>
+      </c>
+      <c r="L22" s="2">
+        <v>12000</v>
+      </c>
+      <c r="M22" s="2">
+        <v>12000</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R22" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F23" s="2">
+        <v>241001</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5098.4700000000012</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5098.4700000000012</v>
+      </c>
+      <c r="K23" s="2">
+        <v>5098.4700000000012</v>
+      </c>
+      <c r="L23" s="2">
+        <v>5098.4700000000012</v>
+      </c>
+      <c r="M23" s="2">
+        <v>5098.4700000000012</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R23" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F24" s="2">
+        <v>242001</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3200</v>
+      </c>
+      <c r="I24" s="2">
+        <v>14149.68</v>
+      </c>
+      <c r="J24" s="2">
+        <v>14149.68</v>
+      </c>
+      <c r="K24" s="2">
+        <v>14149.68</v>
+      </c>
+      <c r="L24" s="2">
+        <v>14149.68</v>
+      </c>
+      <c r="M24" s="2">
+        <v>14149.68</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R24" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F25" s="2">
+        <v>243001</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1481.32</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1481.32</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1481.32</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1481.32</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1481.32</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R25" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F26" s="2">
+        <v>244001</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1006</v>
+      </c>
+      <c r="I26" s="2">
+        <v>949.73</v>
+      </c>
+      <c r="J26" s="2">
+        <v>949.73</v>
+      </c>
+      <c r="K26" s="2">
+        <v>949.73</v>
+      </c>
+      <c r="L26" s="2">
+        <v>949.73</v>
+      </c>
+      <c r="M26" s="2">
+        <v>949.73</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R26" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F27" s="2">
+        <v>245001</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R27" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F28" s="2">
+        <v>246001</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="2">
+        <v>68000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>214426.21</v>
+      </c>
+      <c r="J28" s="2">
+        <v>214426.21</v>
+      </c>
+      <c r="K28" s="2">
+        <v>214426.21</v>
+      </c>
+      <c r="L28" s="2">
+        <v>214426.21</v>
+      </c>
+      <c r="M28" s="2">
+        <v>214426.21</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R28" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F29" s="2">
+        <v>246002</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="2">
+        <v>101990</v>
+      </c>
+      <c r="I29" s="2">
+        <v>78531.95</v>
+      </c>
+      <c r="J29" s="2">
+        <v>78531.95</v>
+      </c>
+      <c r="K29" s="2">
+        <v>78531.95</v>
+      </c>
+      <c r="L29" s="2">
+        <v>78531.95</v>
+      </c>
+      <c r="M29" s="2">
+        <v>78531.95</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R29" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F30" s="2">
+        <v>247001</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="2">
+        <v>43520</v>
+      </c>
+      <c r="I30" s="2">
+        <v>64444.1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>64444.1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>64444.1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>64444.1</v>
+      </c>
+      <c r="M30" s="2">
+        <v>64444.1</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R30" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F31" s="2">
+        <v>249001</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="2">
+        <v>51200</v>
+      </c>
+      <c r="I31" s="2">
+        <v>61345.67</v>
+      </c>
+      <c r="J31" s="2">
+        <v>61345.67</v>
+      </c>
+      <c r="K31" s="2">
+        <v>61345.67</v>
+      </c>
+      <c r="L31" s="2">
+        <v>61345.67</v>
+      </c>
+      <c r="M31" s="2">
+        <v>61345.67</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R31" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C32" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F32" s="2">
+        <v>251001</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="2">
+        <v>221500</v>
+      </c>
+      <c r="I32" s="2">
+        <f>327819.59</f>
+        <v>327819.59000000003</v>
+      </c>
+      <c r="J32" s="2">
+        <v>300833.91999999998</v>
+      </c>
+      <c r="K32" s="2">
+        <v>300833.91999999998</v>
+      </c>
+      <c r="L32" s="2">
+        <v>300833.91999999998</v>
+      </c>
+      <c r="M32" s="2">
+        <v>202530.66999999998</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R32" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C33" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F33" s="2">
+        <v>252001</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>377</v>
+      </c>
+      <c r="J33" s="2">
+        <v>377</v>
+      </c>
+      <c r="K33" s="2">
+        <v>377</v>
+      </c>
+      <c r="L33" s="2">
+        <v>377</v>
+      </c>
+      <c r="M33" s="2">
+        <v>377</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R33" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F34" s="2">
+        <v>253001</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="2">
+        <v>120000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>119667.28</v>
+      </c>
+      <c r="J34" s="2">
+        <v>119667.28</v>
+      </c>
+      <c r="K34" s="2">
+        <v>119667.28</v>
+      </c>
+      <c r="L34" s="2">
+        <v>119667.28</v>
+      </c>
+      <c r="M34" s="2">
+        <v>119667.28</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R34" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F35" s="2">
+        <v>254001</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="2">
+        <v>90000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>103420.14</v>
+      </c>
+      <c r="J35" s="2">
+        <v>103420.14</v>
+      </c>
+      <c r="K35" s="2">
+        <v>103420.14</v>
+      </c>
+      <c r="L35" s="2">
+        <v>103420.14</v>
+      </c>
+      <c r="M35" s="2">
+        <v>103420.14</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R35" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C36" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F36" s="2">
+        <v>255001</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="2">
+        <v>160711</v>
+      </c>
+      <c r="I36" s="2">
+        <f>268239.15</f>
+        <v>268239.15000000002</v>
+      </c>
+      <c r="J36" s="2">
+        <v>260237.44</v>
+      </c>
+      <c r="K36" s="2">
+        <v>260237.44</v>
+      </c>
+      <c r="L36" s="2">
+        <v>260237.44</v>
+      </c>
+      <c r="M36" s="2">
+        <v>155739.15</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R36" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C37" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F37" s="2">
+        <v>256001</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="2">
+        <v>30800</v>
+      </c>
+      <c r="I37" s="2">
+        <v>106200.19999999998</v>
+      </c>
+      <c r="J37" s="2">
+        <v>106200.19999999998</v>
+      </c>
+      <c r="K37" s="2">
+        <v>106200.19999999998</v>
+      </c>
+      <c r="L37" s="2">
+        <v>106200.19999999998</v>
+      </c>
+      <c r="M37" s="2">
+        <v>106200.19999999998</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R37" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C38" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F38" s="2">
+        <v>259001</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="2">
+        <v>499.96</v>
+      </c>
+      <c r="J38" s="2">
+        <v>499.96</v>
+      </c>
+      <c r="K38" s="2">
+        <v>499.96</v>
+      </c>
+      <c r="L38" s="2">
+        <v>499.96</v>
+      </c>
+      <c r="M38" s="2">
+        <v>499.96</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R38" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C39" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2600</v>
+      </c>
+      <c r="F39" s="2">
+        <v>261001</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="2">
+        <v>386000</v>
+      </c>
+      <c r="I39" s="2">
+        <v>385817.18999999994</v>
+      </c>
+      <c r="J39" s="2">
+        <v>385817.18999999994</v>
+      </c>
+      <c r="K39" s="2">
+        <v>385817.18999999994</v>
+      </c>
+      <c r="L39" s="2">
+        <v>385817.18999999994</v>
+      </c>
+      <c r="M39" s="2">
+        <v>385817.18999999994</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R39" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F40" s="2">
+        <v>271001</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="2">
+        <v>80000</v>
+      </c>
+      <c r="I40" s="2">
+        <v>126847.4</v>
+      </c>
+      <c r="J40" s="2">
+        <f>126847.4</f>
+        <v>126847.4</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" ref="K40:L40" si="1">126847.4</f>
+        <v>126847.4</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="1"/>
+        <v>126847.4</v>
+      </c>
+      <c r="M40" s="2">
+        <v>22447.4</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R40" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C41" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F41" s="2">
+        <v>272001</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="2">
+        <v>38500</v>
+      </c>
+      <c r="I41" s="2">
+        <v>81324.570000000007</v>
+      </c>
+      <c r="J41" s="2">
+        <v>81324.570000000007</v>
+      </c>
+      <c r="K41" s="2">
+        <v>81324.570000000007</v>
+      </c>
+      <c r="L41" s="2">
+        <v>81324.570000000007</v>
+      </c>
+      <c r="M41" s="2">
+        <v>81324.570000000007</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R41" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S41" s="2"/>
+    </row>
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B42" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C42" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F42" s="2">
+        <v>273001</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="2">
+        <v>25000</v>
+      </c>
+      <c r="I42" s="2">
+        <v>7980.8</v>
+      </c>
+      <c r="J42" s="2">
+        <v>7980.8</v>
+      </c>
+      <c r="K42" s="2">
+        <v>7980.8</v>
+      </c>
+      <c r="L42" s="2">
+        <v>7980.8</v>
+      </c>
+      <c r="M42" s="2">
+        <v>7980.8</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R42" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C43" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F43" s="2">
+        <v>291001</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="2">
+        <v>89250</v>
+      </c>
+      <c r="I43" s="2">
+        <v>82519.180000000008</v>
+      </c>
+      <c r="J43" s="2">
+        <v>82519.180000000008</v>
+      </c>
+      <c r="K43" s="2">
+        <v>82519.180000000008</v>
+      </c>
+      <c r="L43" s="2">
+        <v>82519.180000000008</v>
+      </c>
+      <c r="M43" s="2">
+        <v>82519.180000000008</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R43" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C44" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F44" s="2">
+        <v>292001</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="2">
+        <v>6000</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3437.2000000000003</v>
+      </c>
+      <c r="J44" s="2">
+        <v>3437.2000000000003</v>
+      </c>
+      <c r="K44" s="2">
+        <v>3437.2000000000003</v>
+      </c>
+      <c r="L44" s="2">
+        <v>3437.2000000000003</v>
+      </c>
+      <c r="M44" s="2">
+        <v>3437.2000000000003</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R44" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C45" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <v>293001</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1991.72</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1991.72</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1991.72</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1991.72</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1991.72</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R45" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C46" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F46" s="2">
+        <v>294001</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" s="2">
+        <v>149968</v>
+      </c>
+      <c r="I46" s="2">
+        <f>500204.35</f>
+        <v>500204.35</v>
+      </c>
+      <c r="J46" s="2">
+        <f>500069.45</f>
+        <v>500069.45</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" ref="K46:L46" si="2">500069.45</f>
+        <v>500069.45</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="2"/>
+        <v>500069.45</v>
+      </c>
+      <c r="M46" s="2">
+        <v>215912.16000000003</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R46" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C47" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F47" s="2">
+        <v>295001</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H47" s="2">
+        <v>37000</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R47" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C48" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F48" s="2">
+        <v>296001</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" s="2">
+        <v>4500</v>
+      </c>
+      <c r="I48" s="2">
+        <v>7359.8700000000008</v>
+      </c>
+      <c r="J48" s="2">
+        <v>7359.8700000000008</v>
+      </c>
+      <c r="K48" s="2">
+        <v>7359.8700000000008</v>
+      </c>
+      <c r="L48" s="2">
+        <v>7359.8700000000008</v>
+      </c>
+      <c r="M48" s="2">
+        <v>7359.8700000000008</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R48" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B49" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C49" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="2">
+        <v>298001</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="2">
+        <v>11500</v>
+      </c>
+      <c r="I49" s="2">
+        <v>5969.96</v>
+      </c>
+      <c r="J49" s="2">
+        <v>5969.96</v>
+      </c>
+      <c r="K49" s="2">
+        <v>5969.96</v>
+      </c>
+      <c r="L49" s="2">
+        <v>5969.96</v>
+      </c>
+      <c r="M49" s="2">
+        <v>5969.96</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R49" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B50" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C50" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E50" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F50" s="2">
+        <v>311001</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1656000</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1748106</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1748106</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1748106</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1748106</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1748106</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R50" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C51" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F51" s="2">
+        <v>313001</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="2">
+        <v>84000</v>
+      </c>
+      <c r="I51" s="2">
+        <v>121165.53</v>
+      </c>
+      <c r="J51" s="2">
+        <v>121165.53</v>
+      </c>
+      <c r="K51" s="2">
+        <v>121165.53</v>
+      </c>
+      <c r="L51" s="2">
+        <v>121165.53</v>
+      </c>
+      <c r="M51" s="2">
+        <v>121165.53</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R51" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B52" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C52" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="2">
+        <v>314001</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H52" s="2">
+        <v>759600</v>
+      </c>
+      <c r="I52" s="2">
+        <v>734088</v>
+      </c>
+      <c r="J52" s="2">
+        <v>734088</v>
+      </c>
+      <c r="K52" s="2">
+        <v>734088</v>
+      </c>
+      <c r="L52" s="2">
+        <v>734088</v>
+      </c>
+      <c r="M52" s="2">
+        <v>734088</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R52" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B53" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C53" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F53" s="2">
+        <v>317001</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H53" s="2">
+        <v>63600</v>
+      </c>
+      <c r="I53" s="2">
+        <v>6670</v>
+      </c>
+      <c r="J53" s="2">
+        <v>6670</v>
+      </c>
+      <c r="K53" s="2">
+        <v>6670</v>
+      </c>
+      <c r="L53" s="2">
+        <v>6670</v>
+      </c>
+      <c r="M53" s="2">
+        <v>6670</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R53" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B54" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C54" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F54" s="2">
+        <v>318001</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1984.7800000000002</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1984.7800000000002</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1984.7800000000002</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1984.7800000000002</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1984.7800000000002</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R54" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B55" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C55" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F55" s="2">
+        <v>323002</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55" s="2">
+        <v>91200</v>
+      </c>
+      <c r="I55" s="2">
+        <v>69460.800000000003</v>
+      </c>
+      <c r="J55" s="2">
+        <v>69460.800000000003</v>
+      </c>
+      <c r="K55" s="2">
+        <v>69460.800000000003</v>
+      </c>
+      <c r="L55" s="2">
+        <v>69460.800000000003</v>
+      </c>
+      <c r="M55" s="2">
+        <v>69460.800000000003</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R55" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B56" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C56" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F56" s="2">
+        <v>326001</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56" s="2">
+        <v>126000</v>
+      </c>
+      <c r="I56" s="2">
+        <v>49880</v>
+      </c>
+      <c r="J56" s="2">
+        <v>49880</v>
+      </c>
+      <c r="K56" s="2">
+        <v>49880</v>
+      </c>
+      <c r="L56" s="2">
+        <v>49880</v>
+      </c>
+      <c r="M56" s="2">
+        <v>49880</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R56" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B57" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C57" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F57" s="2">
+        <v>327001</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" s="2">
+        <v>472665</v>
+      </c>
+      <c r="I57" s="2">
+        <v>235644.6</v>
+      </c>
+      <c r="J57" s="2">
+        <v>235644.6</v>
+      </c>
+      <c r="K57" s="2">
+        <v>235644.6</v>
+      </c>
+      <c r="L57" s="2">
+        <v>235644.6</v>
+      </c>
+      <c r="M57" s="2">
+        <v>112104.6</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R57" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B58" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C58" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F58" s="2">
+        <v>331002</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" s="2">
+        <v>656720</v>
+      </c>
+      <c r="I58" s="2">
+        <f>582563.89</f>
+        <v>582563.89</v>
+      </c>
+      <c r="J58" s="2">
+        <f>582563.89</f>
+        <v>582563.89</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" ref="K58:L58" si="3">582563.89</f>
+        <v>582563.89</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="3"/>
+        <v>582563.89</v>
+      </c>
+      <c r="M58" s="2">
+        <v>467240.88</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R58" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B59" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C59" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F59" s="2">
+        <v>331003</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1040756</v>
+      </c>
+      <c r="I59" s="2">
+        <v>555172.31999999995</v>
+      </c>
+      <c r="J59" s="2">
+        <v>555172.31999999995</v>
+      </c>
+      <c r="K59" s="2">
+        <v>555172.31999999995</v>
+      </c>
+      <c r="L59" s="2">
+        <v>555172.31999999995</v>
+      </c>
+      <c r="M59" s="2">
+        <v>555172.31999999995</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R59" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B60" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C60" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="2">
+        <v>332001</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R60" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B61" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C61" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F61" s="2">
+        <v>334001</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="2">
+        <v>244282</v>
+      </c>
+      <c r="I61" s="2">
+        <v>319157.5</v>
+      </c>
+      <c r="J61" s="2">
+        <v>319157.5</v>
+      </c>
+      <c r="K61" s="2">
+        <v>319157.5</v>
+      </c>
+      <c r="L61" s="2">
+        <v>319157.5</v>
+      </c>
+      <c r="M61" s="2">
+        <v>299157.5</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R61" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B62" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C62" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="2">
+        <v>336001</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62" s="2">
+        <v>432800</v>
+      </c>
+      <c r="I62" s="2">
+        <v>589076.94000000006</v>
+      </c>
+      <c r="J62" s="2">
+        <v>589076.94000000006</v>
+      </c>
+      <c r="K62" s="2">
+        <v>589076.94000000006</v>
+      </c>
+      <c r="L62" s="2">
+        <v>589076.94000000006</v>
+      </c>
+      <c r="M62" s="2">
+        <v>589076.93999999994</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R62" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B63" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C63" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F63" s="2">
+        <v>338001</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1934880</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1844909.49</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1844909.49</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1844909.49</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1844909.49</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1844909.49</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R63" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B64" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C64" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F64" s="2">
+        <v>341001</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H64" s="2">
+        <v>131000</v>
+      </c>
+      <c r="I64" s="2">
+        <v>237027.24000000002</v>
+      </c>
+      <c r="J64" s="2">
+        <v>237027.24000000002</v>
+      </c>
+      <c r="K64" s="2">
+        <v>237027.24000000002</v>
+      </c>
+      <c r="L64" s="2">
+        <v>237027.24000000002</v>
+      </c>
+      <c r="M64" s="2">
+        <v>237027.24000000002</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R64" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B65" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C65" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F65" s="2">
+        <v>345001</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65" s="2">
+        <v>325000</v>
+      </c>
+      <c r="I65" s="2">
+        <v>148851.20000000001</v>
+      </c>
+      <c r="J65" s="2">
+        <v>148851.20000000001</v>
+      </c>
+      <c r="K65" s="2">
+        <v>148851.20000000001</v>
+      </c>
+      <c r="L65" s="2">
+        <v>148851.20000000001</v>
+      </c>
+      <c r="M65" s="2">
+        <v>148851.20000000001</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R65" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B66" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C66" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="2">
+        <v>351001</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" s="2">
+        <v>145000</v>
+      </c>
+      <c r="I66" s="2">
+        <f>659938.52</f>
+        <v>659938.52</v>
+      </c>
+      <c r="J66" s="2">
+        <f>659938.52</f>
+        <v>659938.52</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" ref="K66:L66" si="4">659938.52</f>
+        <v>659938.52</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="4"/>
+        <v>659938.52</v>
+      </c>
+      <c r="M66" s="2">
+        <v>268927.14</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R66" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B67" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C67" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F67" s="2">
+        <v>352001</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H67" s="2">
+        <v>30000</v>
+      </c>
+      <c r="I67" s="2">
+        <v>182491.2</v>
+      </c>
+      <c r="J67" s="2">
+        <v>182491.2</v>
+      </c>
+      <c r="K67" s="2">
+        <v>182491.2</v>
+      </c>
+      <c r="L67" s="2">
+        <v>182491.2</v>
+      </c>
+      <c r="M67" s="2">
+        <v>182491.2</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R67" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B68" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C68" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F68" s="2">
+        <v>353001</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H68" s="2">
+        <v>371500</v>
+      </c>
+      <c r="I68" s="2">
+        <v>257510.71</v>
+      </c>
+      <c r="J68" s="2">
+        <v>257510.71</v>
+      </c>
+      <c r="K68" s="2">
+        <v>257510.71</v>
+      </c>
+      <c r="L68" s="2">
+        <v>257510.71</v>
+      </c>
+      <c r="M68" s="2">
+        <v>257510.71</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R68" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B69" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C69" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F69" s="2">
+        <v>354001</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" s="2">
+        <v>8000</v>
+      </c>
+      <c r="I69" s="2">
+        <v>30044</v>
+      </c>
+      <c r="J69" s="2">
+        <v>30044</v>
+      </c>
+      <c r="K69" s="2">
+        <v>30044</v>
+      </c>
+      <c r="L69" s="2">
+        <v>30044</v>
+      </c>
+      <c r="M69" s="2">
+        <v>30044</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R69" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B70" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C70" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F70" s="2">
+        <v>355001</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H70" s="2">
+        <v>75000</v>
+      </c>
+      <c r="I70" s="2">
+        <v>257883.72</v>
+      </c>
+      <c r="J70" s="2">
+        <v>257883.72</v>
+      </c>
+      <c r="K70" s="2">
+        <v>257883.72</v>
+      </c>
+      <c r="L70" s="2">
+        <v>257883.72</v>
+      </c>
+      <c r="M70" s="2">
+        <v>257883.72</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R70" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B71" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C71" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D71" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E71" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F71" s="2">
+        <v>357001</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H71" s="2">
+        <v>78000</v>
+      </c>
+      <c r="I71" s="2">
+        <v>121990.56</v>
+      </c>
+      <c r="J71" s="2">
+        <v>121990.56</v>
+      </c>
+      <c r="K71" s="2">
+        <v>121990.56</v>
+      </c>
+      <c r="L71" s="2">
+        <v>121990.56</v>
+      </c>
+      <c r="M71" s="2">
+        <v>42990.559999999998</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R71" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B72" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C72" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F72" s="2">
+        <v>358001</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1136388</v>
+      </c>
+      <c r="I72" s="2">
+        <v>580.26</v>
+      </c>
+      <c r="J72" s="2">
+        <v>580.26</v>
+      </c>
+      <c r="K72" s="2">
+        <v>580.26</v>
+      </c>
+      <c r="L72" s="2">
+        <v>580.26</v>
+      </c>
+      <c r="M72" s="2">
+        <v>580.26</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R72" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B73" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C73" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D73" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F73" s="2">
+        <v>359001</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H73" s="2">
+        <v>15000</v>
+      </c>
+      <c r="I73" s="2">
+        <v>41999.6</v>
+      </c>
+      <c r="J73" s="2">
+        <v>41999.6</v>
+      </c>
+      <c r="K73" s="2">
+        <v>41999.6</v>
+      </c>
+      <c r="L73" s="2">
+        <v>41999.6</v>
+      </c>
+      <c r="M73" s="2">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R73" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B74" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C74" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3600</v>
+      </c>
+      <c r="F74" s="2">
+        <v>361002</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H74" s="2">
+        <v>192000</v>
+      </c>
+      <c r="I74" s="2">
+        <v>114348</v>
+      </c>
+      <c r="J74" s="2">
+        <v>94348</v>
+      </c>
+      <c r="K74" s="2">
+        <v>94348</v>
+      </c>
+      <c r="L74" s="2">
+        <v>94348</v>
+      </c>
+      <c r="M74" s="2">
+        <v>94348</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R74" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S74" s="2"/>
+    </row>
+    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B75" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C75" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E75" s="2">
+        <v>3600</v>
+      </c>
+      <c r="F75" s="2">
+        <v>362001</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H75" s="2">
+        <v>69000</v>
+      </c>
+      <c r="I75" s="2">
+        <v>387901.43</v>
+      </c>
+      <c r="J75" s="2">
+        <v>387901.43</v>
+      </c>
+      <c r="K75" s="2">
+        <v>387901.43</v>
+      </c>
+      <c r="L75" s="2">
+        <v>387901.43</v>
+      </c>
+      <c r="M75" s="2">
+        <v>387901.43</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R75" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S75" s="2"/>
+    </row>
+    <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B76" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C76" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E76" s="2">
+        <v>3700</v>
+      </c>
+      <c r="F76" s="2">
+        <v>371001</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H76" s="2">
+        <v>69410</v>
+      </c>
+      <c r="I76" s="2">
+        <v>19839.39</v>
+      </c>
+      <c r="J76" s="2">
+        <v>19839.39</v>
+      </c>
+      <c r="K76" s="2">
+        <v>19839.39</v>
+      </c>
+      <c r="L76" s="2">
+        <v>19839.39</v>
+      </c>
+      <c r="M76" s="2">
+        <v>19839.39</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R76" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S76" s="2"/>
+    </row>
+    <row r="77" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B77" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C77" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E77" s="2">
+        <v>3700</v>
+      </c>
+      <c r="F77" s="2">
+        <v>372001</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" s="2">
+        <v>77000</v>
+      </c>
+      <c r="I77" s="2">
+        <f>99215.2</f>
+        <v>99215.2</v>
+      </c>
+      <c r="J77" s="2">
+        <f>99215.2</f>
+        <v>99215.2</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" ref="K77:L77" si="5">99215.2</f>
+        <v>99215.2</v>
+      </c>
+      <c r="L77" s="2">
+        <f t="shared" si="5"/>
+        <v>99215.2</v>
+      </c>
+      <c r="M77" s="2">
+        <v>80462.13</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R77" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S77" s="2"/>
+    </row>
+    <row r="78" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B78" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C78" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D78" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E78" s="2">
+        <v>3700</v>
+      </c>
+      <c r="F78" s="2">
+        <v>375001</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H78" s="2">
+        <v>42850</v>
+      </c>
+      <c r="I78" s="2">
+        <v>178644.55</v>
+      </c>
+      <c r="J78" s="2">
+        <v>158644.54999999999</v>
+      </c>
+      <c r="K78" s="2">
+        <v>158644.54999999999</v>
+      </c>
+      <c r="L78" s="2">
+        <v>158644.54999999999</v>
+      </c>
+      <c r="M78" s="2">
+        <v>158644.54999999999</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R78" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S78" s="2"/>
+    </row>
+    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B79" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C79" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E79" s="2">
+        <v>3800</v>
+      </c>
+      <c r="F79" s="2">
+        <v>381001</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H79" s="2">
+        <v>253000</v>
+      </c>
+      <c r="I79" s="2">
+        <f>1784248.97</f>
+        <v>1784248.97</v>
+      </c>
+      <c r="J79" s="2">
+        <f>1784248.97</f>
+        <v>1784248.97</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" ref="K79:L79" si="6">1784248.97</f>
+        <v>1784248.97</v>
+      </c>
+      <c r="L79" s="2">
+        <f t="shared" si="6"/>
+        <v>1784248.97</v>
+      </c>
+      <c r="M79" s="2">
+        <v>1698602.04</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R79" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S79" s="2"/>
+    </row>
+    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B80" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C80" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E80" s="2">
+        <v>3800</v>
+      </c>
+      <c r="F80" s="2">
+        <v>382001</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H80" s="2">
+        <v>90000</v>
+      </c>
+      <c r="I80" s="2">
+        <v>648502.97</v>
+      </c>
+      <c r="J80" s="2">
+        <v>648502.97</v>
+      </c>
+      <c r="K80" s="2">
+        <v>648502.97</v>
+      </c>
+      <c r="L80" s="2">
+        <v>648502.97</v>
+      </c>
+      <c r="M80" s="2">
+        <v>648502.97000000009</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R80" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S80" s="2"/>
+    </row>
+    <row r="81" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B81" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C81" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="2">
+        <v>3800</v>
+      </c>
+      <c r="F81" s="2">
+        <v>383001</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
+        <v>0</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R81" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S81" s="2"/>
+    </row>
+    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B82" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C82" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F82" s="2">
+        <v>392001</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1912711</v>
+      </c>
+      <c r="I82" s="2">
+        <v>3427440</v>
+      </c>
+      <c r="J82" s="2">
+        <v>3427440</v>
+      </c>
+      <c r="K82" s="2">
+        <v>3427440</v>
+      </c>
+      <c r="L82" s="2">
+        <v>3427440</v>
+      </c>
+      <c r="M82" s="2">
+        <v>3427440</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R82" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S82" s="2"/>
+    </row>
+    <row r="83" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B83" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C83" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D83" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F83" s="2">
+        <v>392006</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1614590</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1229536.25</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1229536.25</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1229536.25</v>
+      </c>
+      <c r="L83" s="2">
+        <v>1229536.25</v>
+      </c>
+      <c r="M83" s="2">
+        <v>1229536.25</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R83" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S83" s="2"/>
+    </row>
+    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B84" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C84" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D84" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F84" s="2">
+        <v>398001</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H84" s="2">
+        <v>3039288</v>
+      </c>
+      <c r="I84" s="2">
+        <v>3267111.79</v>
+      </c>
+      <c r="J84" s="2">
+        <v>3267111.79</v>
+      </c>
+      <c r="K84" s="2">
+        <v>3267111.79</v>
+      </c>
+      <c r="L84" s="2">
+        <v>3267111.79</v>
+      </c>
+      <c r="M84" s="2">
+        <v>3267111.79</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R84" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S84" s="2"/>
+    </row>
+    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B85" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C85" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E85" s="2">
+        <v>4100</v>
+      </c>
+      <c r="F85" s="2">
+        <v>415001</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H85" s="2">
+        <v>5065942</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
+        <v>0</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O85" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R85" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S85" s="2"/>
+    </row>
+    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B86" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C86" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D86" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E86" s="2">
+        <v>4400</v>
+      </c>
+      <c r="F86" s="2">
+        <v>442001</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H86" s="2">
+        <v>405500</v>
+      </c>
+      <c r="I86" s="2">
+        <f>429512.65</f>
+        <v>429512.65</v>
+      </c>
+      <c r="J86" s="2">
+        <f>405318.83</f>
+        <v>405318.83</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" ref="K86:L86" si="7">405318.83</f>
+        <v>405318.83</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" si="7"/>
+        <v>405318.83</v>
+      </c>
+      <c r="M86" s="2">
+        <v>405306.18</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R86" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S86" s="2"/>
+    </row>
+    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B87" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C87" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D87" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E87" s="2">
+        <v>5100</v>
+      </c>
+      <c r="F87" s="2">
+        <v>515001</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H87" s="2">
+        <v>622000</v>
+      </c>
+      <c r="I87" s="2">
+        <f>742962.51</f>
+        <v>742962.51</v>
+      </c>
+      <c r="J87" s="2">
+        <f>737312.81</f>
+        <v>737312.81</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" ref="K87:L87" si="8">737312.81</f>
+        <v>737312.81</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="8"/>
+        <v>737312.81</v>
+      </c>
+      <c r="M87" s="2">
+        <v>618865.59000000008</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R87" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S87" s="2"/>
+    </row>
+    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B88" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C88" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D88" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E88" s="2">
+        <v>5300</v>
+      </c>
+      <c r="F88" s="2">
+        <v>531001</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H88" s="2">
+        <v>120000</v>
+      </c>
+      <c r="I88" s="2">
+        <v>119625</v>
+      </c>
+      <c r="J88" s="2">
+        <v>119625</v>
+      </c>
+      <c r="K88" s="2">
+        <v>119625</v>
+      </c>
+      <c r="L88" s="2">
+        <v>119625</v>
+      </c>
+      <c r="M88" s="2">
+        <v>119625</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R88" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S88" s="2"/>
+    </row>
+    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B89" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C89" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D89" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E89" s="2">
+        <v>5600</v>
+      </c>
+      <c r="F89" s="2">
+        <v>567001</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H89" s="2">
+        <v>130000</v>
+      </c>
+      <c r="I89" s="2">
+        <v>77900</v>
+      </c>
+      <c r="J89" s="2">
+        <v>77900</v>
+      </c>
+      <c r="K89" s="2">
+        <v>77900</v>
+      </c>
+      <c r="L89" s="2">
+        <v>77900</v>
+      </c>
+      <c r="M89" s="2">
+        <v>77900</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R89" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S89" s="2"/>
+    </row>
+    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B90" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C90" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D90" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E90" s="2">
+        <v>5600</v>
+      </c>
+      <c r="F90" s="2">
+        <v>569001</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H90" s="2">
+        <v>300000</v>
+      </c>
+      <c r="I90" s="2">
+        <f>341994.5</f>
+        <v>341994.5</v>
+      </c>
+      <c r="J90" s="2">
+        <f>338164.58</f>
+        <v>338164.58</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" ref="K90:L90" si="9">338164.58</f>
+        <v>338164.58</v>
+      </c>
+      <c r="L90" s="2">
+        <f t="shared" si="9"/>
+        <v>338164.58</v>
+      </c>
+      <c r="M90" s="2">
+        <v>297994.5</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R90" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S90" s="2"/>
+    </row>
+    <row r="91" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B91" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C91" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D91" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E91" s="2">
+        <v>7900</v>
+      </c>
+      <c r="F91" s="2">
+        <v>799004</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
+        <f>1694229.95</f>
+        <v>1694229.95</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>45301</v>
+      </c>
+      <c r="R91" s="3">
+        <v>45301</v>
+      </c>
+      <c r="S91" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -917,6 +5998,10 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O8" r:id="rId1" xr:uid="{7B351207-B91E-4B57-98BC-7C0FB02F83B7}"/>
+    <hyperlink ref="O9:O91" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_diciembre_2023/04.estadopresupuestoegresos-cap-gto.pdf" xr:uid="{4368CC2F-B89D-431E-A717-5091E8C8D49A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>